--- a/PENGUJIAN/Format Scenario Software Testing.xlsx
+++ b/PENGUJIAN/Format Scenario Software Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raan\rania\semester 7\KUALITAS PERANGKAT LUNAK\PRAKTIKUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDD128-690F-4720-81D4-4FC18399C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AC3B1-3618-4953-B250-FB5EE17BDB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{864CA9F1-05CD-466D-82AE-8F3019204333}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -298,6 +298,72 @@
   </si>
   <si>
     <t xml:space="preserve">Behasil mengambil data dari struk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengambil data melalui pixel-pixel yang telah diatur dalam bentuk array </t>
+  </si>
+  <si>
+    <t>Mengambil dan mengubah dictionary menjadi JSON</t>
+  </si>
+  <si>
+    <t>Mempersiapkan data-data pixel yang akan diambil</t>
+  </si>
+  <si>
+    <t>1. Mempersiapkan objek kosong</t>
+  </si>
+  <si>
+    <t>2. Mempersiapkan data pixel yang tersedia dalam bentuk array</t>
+  </si>
+  <si>
+    <t>3. Melakukan iterasi sebanyak data array tersebut</t>
+  </si>
+  <si>
+    <t>4. Mengambil nilai dari data pixel yang tersedia di dalam array</t>
+  </si>
+  <si>
+    <t>5. Mengembalikan objek dari variabel output dalam bentuk JSON</t>
+  </si>
+  <si>
+    <t>Data dari array dan data dari gambar</t>
+  </si>
+  <si>
+    <t>Mengembalikan objek dalam bentuk JSON dan data-data yang diperlukan</t>
+  </si>
+  <si>
+    <t>Gambar diambil dan diproses menggunakan python tesseract, memotong gambar dari pixel yang telah tersedia dalam array serta mengembalikan hasil objek dalam bentuk JSON</t>
+  </si>
+  <si>
+    <t>Mengirimkan gambar ke dalam code python</t>
+  </si>
+  <si>
+    <t>Menampilkan form inputan gambar</t>
+  </si>
+  <si>
+    <t>1. Klik input file</t>
+  </si>
+  <si>
+    <t>2. Memilih gambar</t>
+  </si>
+  <si>
+    <t>3. Gambar akan dibaca oleh javascript menggunakan class FileReader()</t>
+  </si>
+  <si>
+    <t>4. Melakukan request ke root python dengan methode POST</t>
+  </si>
+  <si>
+    <t>5. Menadaptkan hasil result dari pemanggilan API dalam bentuk JSON</t>
+  </si>
+  <si>
+    <t>Mengirimkan gambar ke API python</t>
+  </si>
+  <si>
+    <t>Mendapatkan data yang diperlukan dalam bentuk JSON</t>
+  </si>
+  <si>
+    <t>Gambar di upload dan dikirimkan melalui API</t>
+  </si>
+  <si>
+    <t>Mengambil inputan gambar sesuai dengan format diminta dan mengirimkan ke code python</t>
   </si>
 </sst>
 </file>
@@ -441,31 +507,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -479,24 +526,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,14 +535,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,407 +920,365 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="12"/>
-    <col min="2" max="2" width="21.90625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="28.36328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="30.453125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="35.90625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="30.36328125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="21.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.90625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="24"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="24"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -1254,6 +1295,48 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F46D9E-56B5-4974-9CF6-05A315BBBCCD}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="30" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I13" sqref="I13:I15"/>
     </sheetView>
   </sheetViews>
@@ -1283,10 +1366,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2"/>
@@ -1296,10 +1379,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2"/>
@@ -1309,10 +1392,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
@@ -1322,10 +1405,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2"/>
@@ -1335,10 +1418,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
@@ -1348,10 +1431,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1386,473 +1469,464 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="24"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="24"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="24"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="24"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="23"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="22" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="22" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="24"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="24"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="24"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="24"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="24"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="K16:K18"/>
@@ -1869,27 +1943,36 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1899,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE228AF5-A070-40B7-AB23-17C6A8072B31}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H18"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1918,10 +2001,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2"/>
@@ -1931,10 +2014,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2"/>
@@ -1944,10 +2027,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
@@ -1957,10 +2040,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2"/>
@@ -1970,10 +2053,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
@@ -1983,10 +2066,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2021,175 +2104,163 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="25" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="26"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="26"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
@@ -2206,6 +2277,18 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0FB88B-C0C1-42F1-A89C-88162C2E3E47}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2235,10 +2318,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2"/>
@@ -2248,10 +2331,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="2"/>
@@ -2261,10 +2344,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
@@ -2274,10 +2357,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2"/>
@@ -2287,10 +2370,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
@@ -2300,10 +2383,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2338,235 +2421,154 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="C13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.35">
+      <c r="B14" s="24"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="24"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
+  <mergeCells count="19">
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="G13:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2574,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43A8404-55D1-41F6-AB03-B3893B9B6C2B}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+    <sheetView zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2595,10 +2597,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2"/>
@@ -2608,10 +2610,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
@@ -2621,10 +2623,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
@@ -2634,10 +2636,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2"/>
@@ -2647,10 +2649,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
@@ -2660,10 +2662,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2698,235 +2700,154 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
+  <mergeCells count="19">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="G13:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
